--- a/data/Datas/card/#CardsInfo.xlsx
+++ b/data/Datas/card/#CardsInfo.xlsx
@@ -1044,13 +1044,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1312,7 +1305,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
